--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Miller\Documents\Hackathon\sample_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Miller\Documents\GitHub\RealityHack2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E61DFE82-4913-401D-9067-215D866D69E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4585D31F-6C3B-4FD3-B595-57F0B195D4AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A72EA2EC-8D18-4A53-BF9E-A93F06DB74E6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>pace (min / mile)</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>distance (miles)</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8B9298-019E-4566-8812-486946BC4AF1}">
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:H152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -416,7 +419,7 @@
     <col min="1" max="6" width="25.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -435,8 +438,11 @@
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -456,7 +462,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <f>A2+1</f>
         <v>1</v>
@@ -480,7 +486,7 @@
         <v>35.25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A67" si="0">A3+1</f>
         <v>2</v>
@@ -504,7 +510,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -528,7 +534,7 @@
         <v>35.75</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -552,7 +558,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -576,7 +582,7 @@
         <v>36.25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -600,7 +606,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -624,7 +630,7 @@
         <v>36.75</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -648,7 +654,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -672,7 +678,7 @@
         <v>37.25</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -696,7 +702,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -720,7 +726,7 @@
         <v>37.75</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -744,7 +750,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -768,7 +774,7 @@
         <v>38.25</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>14</v>

--- a/sample_data.xlsx
+++ b/sample_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Miller\Documents\GitHub\RealityHack2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4585D31F-6C3B-4FD3-B595-57F0B195D4AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E8CE34-CD3B-433C-8CCC-BB000AD1539A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{A72EA2EC-8D18-4A53-BF9E-A93F06DB74E6}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>pace (min / mile)</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>distance (miles)</t>
-  </si>
-  <si>
-    <t>test</t>
   </si>
 </sst>
 </file>
@@ -412,7 +409,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A8B9298-019E-4566-8812-486946BC4AF1}">
   <dimension ref="A1:H152"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -438,9 +437,7 @@
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="H1" s="1"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
